--- a/data/DroneAudio.xlsx
+++ b/data/DroneAudio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MachineLearning\Graduation_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8BAF5A-643E-45B7-BBB2-410ED460CB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C917F4A7-C534-4FA1-A0E9-B6FD6323F611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7425" uniqueCount="3720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8249" uniqueCount="4132">
   <si>
     <t>BEBOP_1.wav</t>
   </si>
@@ -11194,6 +11194,1242 @@
   <si>
     <t>UNKNOWN</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEBOP_516.wav</t>
+  </si>
+  <si>
+    <t>LQ_165.wav</t>
+  </si>
+  <si>
+    <t>GLFW_287.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_190.wav</t>
+  </si>
+  <si>
+    <t>VTOL_244.wav</t>
+  </si>
+  <si>
+    <t>GLFW_87.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_256.wav</t>
+  </si>
+  <si>
+    <t>LQ_364.wav</t>
+  </si>
+  <si>
+    <t>1-7974-A-493.wav</t>
+  </si>
+  <si>
+    <t>VTOL_236.wav</t>
+  </si>
+  <si>
+    <t>LQ_188.wav</t>
+  </si>
+  <si>
+    <t>VTOL_155.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_412.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_155.wav</t>
+  </si>
+  <si>
+    <t>VTOL_389.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_623.wav</t>
+  </si>
+  <si>
+    <t>GLFW_592.wav</t>
+  </si>
+  <si>
+    <t>LQ_662.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_546.wav</t>
+  </si>
+  <si>
+    <t>1-9886-A-490.wav</t>
+  </si>
+  <si>
+    <t>LQ_526.wav</t>
+  </si>
+  <si>
+    <t>VTOL_71.wav</t>
+  </si>
+  <si>
+    <t>LQ_232.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_143.wav</t>
+  </si>
+  <si>
+    <t>1-7973-A-74.wav</t>
+  </si>
+  <si>
+    <t>GLFW_232.wav</t>
+  </si>
+  <si>
+    <t>VTOL_362.wav</t>
+  </si>
+  <si>
+    <t>VTOL_100.wav</t>
+  </si>
+  <si>
+    <t>GLFW_11.wav</t>
+  </si>
+  <si>
+    <t>1-38559-A-143.wav</t>
+  </si>
+  <si>
+    <t>1-977-A-390.wav</t>
+  </si>
+  <si>
+    <t>1-38559-A-144.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_395.wav</t>
+  </si>
+  <si>
+    <t>LQ_269.wav</t>
+  </si>
+  <si>
+    <t>VTOL_693.wav</t>
+  </si>
+  <si>
+    <t>VTOL_81.wav</t>
+  </si>
+  <si>
+    <t>VTOL_653.wav</t>
+  </si>
+  <si>
+    <t>LQ_135.wav</t>
+  </si>
+  <si>
+    <t>LQ_439.wav</t>
+  </si>
+  <si>
+    <t>LQ_559.wav</t>
+  </si>
+  <si>
+    <t>1-9887-A-491.wav</t>
+  </si>
+  <si>
+    <t>1-7974-A-491.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_641.wav</t>
+  </si>
+  <si>
+    <t>GLFW_75.wav</t>
+  </si>
+  <si>
+    <t>VTOL_437.wav</t>
+  </si>
+  <si>
+    <t>VTOL_548.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_629.wav</t>
+  </si>
+  <si>
+    <t>GLFW_191.wav</t>
+  </si>
+  <si>
+    <t>1-5996-A-60.wav</t>
+  </si>
+  <si>
+    <t>1-9841-A-131.wav</t>
+  </si>
+  <si>
+    <t>1-9886-A-491.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_212.wav</t>
+  </si>
+  <si>
+    <t>VTOL_302.wav</t>
+  </si>
+  <si>
+    <t>1-4211-A-121.wav</t>
+  </si>
+  <si>
+    <t>GLFW_167.wav</t>
+  </si>
+  <si>
+    <t>1-9887-A-493.wav</t>
+  </si>
+  <si>
+    <t>GLFW_8.wav</t>
+  </si>
+  <si>
+    <t>GLFW_141.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_471.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_417.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_37.wav</t>
+  </si>
+  <si>
+    <t>1-7974-A-492.wav</t>
+  </si>
+  <si>
+    <t>VTOL_424.wav</t>
+  </si>
+  <si>
+    <t>GLFW_377.wav</t>
+  </si>
+  <si>
+    <t>1-38560-A-141.wav</t>
+  </si>
+  <si>
+    <t>1-4211-A-123.wav</t>
+  </si>
+  <si>
+    <t>LQ_616.wav</t>
+  </si>
+  <si>
+    <t>LQ_258.wav</t>
+  </si>
+  <si>
+    <t>GLFW_165.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_133.wav</t>
+  </si>
+  <si>
+    <t>LQ_678.wav</t>
+  </si>
+  <si>
+    <t>LQ_699.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_429.wav</t>
+  </si>
+  <si>
+    <t>VTOL_715.wav</t>
+  </si>
+  <si>
+    <t>GLFW_383.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_248.wav</t>
+  </si>
+  <si>
+    <t>1-7057-A-121.wav</t>
+  </si>
+  <si>
+    <t>GLFW_111.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_517.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_106.wav</t>
+  </si>
+  <si>
+    <t>VTOL_364.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_199.wav</t>
+  </si>
+  <si>
+    <t>GLFW_51.wav</t>
+  </si>
+  <si>
+    <t>LQ_10.wav</t>
+  </si>
+  <si>
+    <t>LQ_307.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_159.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_646.wav</t>
+  </si>
+  <si>
+    <t>1-7973-A-7_1002.wav</t>
+  </si>
+  <si>
+    <t>GLFW_304.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_611.wav</t>
+  </si>
+  <si>
+    <t>1-9887-A-490.wav</t>
+  </si>
+  <si>
+    <t>LQ_191.wav</t>
+  </si>
+  <si>
+    <t>VTOL_571.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_482.wav</t>
+  </si>
+  <si>
+    <t>VTOL_330.wav</t>
+  </si>
+  <si>
+    <t>VTOL_66.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_55.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_399.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_17.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_296.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_534.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_64.wav</t>
+  </si>
+  <si>
+    <t>VTOL_142.wav</t>
+  </si>
+  <si>
+    <t>GLFW_606.wav</t>
+  </si>
+  <si>
+    <t>1-38560-A-142.wav</t>
+  </si>
+  <si>
+    <t>LQ_164.wav</t>
+  </si>
+  <si>
+    <t>1-977-A-392.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_573.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_262.wav</t>
+  </si>
+  <si>
+    <t>LQ_464.wav</t>
+  </si>
+  <si>
+    <t>GLFW_446.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_576.wav</t>
+  </si>
+  <si>
+    <t>VTOL_312.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_475.wav</t>
+  </si>
+  <si>
+    <t>LQ_505.wav</t>
+  </si>
+  <si>
+    <t>1-5996-A-62.wav</t>
+  </si>
+  <si>
+    <t>LQ_587.wav</t>
+  </si>
+  <si>
+    <t>GLFW_178.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_488.wav</t>
+  </si>
+  <si>
+    <t>VTOL_99.wav</t>
+  </si>
+  <si>
+    <t>GLFW_28.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_511.wav</t>
+  </si>
+  <si>
+    <t>GLFW_559.wav</t>
+  </si>
+  <si>
+    <t>VTOL_297.wav</t>
+  </si>
+  <si>
+    <t>GLFW_458.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_162.wav</t>
+  </si>
+  <si>
+    <t>VTOL_514.wav</t>
+  </si>
+  <si>
+    <t>LQ_416.wav</t>
+  </si>
+  <si>
+    <t>1-7456-A-133.wav</t>
+  </si>
+  <si>
+    <t>VTOL_665.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_306.wav</t>
+  </si>
+  <si>
+    <t>VTOL_476.wav</t>
+  </si>
+  <si>
+    <t>LQ_410.wav</t>
+  </si>
+  <si>
+    <t>VTOL_106.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_607.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_337.wav</t>
+  </si>
+  <si>
+    <t>1-7974-A-490.wav</t>
+  </si>
+  <si>
+    <t>1-9841-A-134.wav</t>
+  </si>
+  <si>
+    <t>LQ_657.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_442.wav</t>
+  </si>
+  <si>
+    <t>VTOL_233.wav</t>
+  </si>
+  <si>
+    <t>VTOL_355.wav</t>
+  </si>
+  <si>
+    <t>GLFW_90.wav</t>
+  </si>
+  <si>
+    <t>1-7456-A-132.wav</t>
+  </si>
+  <si>
+    <t>1-5996-A-63.wav</t>
+  </si>
+  <si>
+    <t>GLFW_448.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_542.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_626.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_73.wav</t>
+  </si>
+  <si>
+    <t>LQ_654.wav</t>
+  </si>
+  <si>
+    <t>LQ_581.wav</t>
+  </si>
+  <si>
+    <t>GLFW_572.wav</t>
+  </si>
+  <si>
+    <t>GLFW_418.wav</t>
+  </si>
+  <si>
+    <t>GLFW_593.wav</t>
+  </si>
+  <si>
+    <t>VTOL_16.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_621.wav</t>
+  </si>
+  <si>
+    <t>VTOL_293.wav</t>
+  </si>
+  <si>
+    <t>LQ_413.wav</t>
+  </si>
+  <si>
+    <t>LQ_552.wav</t>
+  </si>
+  <si>
+    <t>1-7973-A-72.wav</t>
+  </si>
+  <si>
+    <t>GLFW_536.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_268.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_244.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_446.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_165.wav</t>
+  </si>
+  <si>
+    <t>GLFW_296.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_370.wav</t>
+  </si>
+  <si>
+    <t>1-5996-A-61.wav</t>
+  </si>
+  <si>
+    <t>GLFW_137.wav</t>
+  </si>
+  <si>
+    <t>GLFW_603.wav</t>
+  </si>
+  <si>
+    <t>VTOL_649.wav</t>
+  </si>
+  <si>
+    <t>GLFW_130.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_456.wav</t>
+  </si>
+  <si>
+    <t>VTOL_154.wav</t>
+  </si>
+  <si>
+    <t>LQ_562.wav</t>
+  </si>
+  <si>
+    <t>GLFW_376.wav</t>
+  </si>
+  <si>
+    <t>LQ_39.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_540.wav</t>
+  </si>
+  <si>
+    <t>VTOL_325.wav</t>
+  </si>
+  <si>
+    <t>VTOL_157.wav</t>
+  </si>
+  <si>
+    <t>VTOL_31.wav</t>
+  </si>
+  <si>
+    <t>LQ_529.wav</t>
+  </si>
+  <si>
+    <t>1-7456-A-134.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_489.wav</t>
+  </si>
+  <si>
+    <t>LQ_104.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_411.wav</t>
+  </si>
+  <si>
+    <t>GLFW_238.wav</t>
+  </si>
+  <si>
+    <t>GLFW_504.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_239.wav</t>
+  </si>
+  <si>
+    <t>VTOL_284.wav</t>
+  </si>
+  <si>
+    <t>GLFW_531.wav</t>
+  </si>
+  <si>
+    <t>GLFW_467.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_331.wav</t>
+  </si>
+  <si>
+    <t>VTOL_298.wav</t>
+  </si>
+  <si>
+    <t>LQ_47.wav</t>
+  </si>
+  <si>
+    <t>VTOL_196.wav</t>
+  </si>
+  <si>
+    <t>VTOL_634.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_120.wav</t>
+  </si>
+  <si>
+    <t>VTOL_258.wav</t>
+  </si>
+  <si>
+    <t>LQ_638.wav</t>
+  </si>
+  <si>
+    <t>1-7973-A-73.wav</t>
+  </si>
+  <si>
+    <t>LQ_129.wav</t>
+  </si>
+  <si>
+    <t>VTOL_551.wav</t>
+  </si>
+  <si>
+    <t>GLFW_322.wav</t>
+  </si>
+  <si>
+    <t>LQ_599.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_137.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_177.wav</t>
+  </si>
+  <si>
+    <t>LQ_444.wav</t>
+  </si>
+  <si>
+    <t>VTOL_126.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_562.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_560.wav</t>
+  </si>
+  <si>
+    <t>LQ_563.wav</t>
+  </si>
+  <si>
+    <t>VTOL_469.wav</t>
+  </si>
+  <si>
+    <t>LQ_602.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_477.wav</t>
+  </si>
+  <si>
+    <t>GLFW_143.wav</t>
+  </si>
+  <si>
+    <t>VTOL_304.wav</t>
+  </si>
+  <si>
+    <t>LQ_664.wav</t>
+  </si>
+  <si>
+    <t>1-38560-A-143.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_490.wav</t>
+  </si>
+  <si>
+    <t>1-977-A-394.wav</t>
+  </si>
+  <si>
+    <t>GLFW_101.wav</t>
+  </si>
+  <si>
+    <t>LQ_12.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_462.wav</t>
+  </si>
+  <si>
+    <t>1-7456-A-131.wav</t>
+  </si>
+  <si>
+    <t>LQ_623.wav</t>
+  </si>
+  <si>
+    <t>GLFW_428.wav</t>
+  </si>
+  <si>
+    <t>LQ_212.wav</t>
+  </si>
+  <si>
+    <t>VTOL_599.wav</t>
+  </si>
+  <si>
+    <t>VTOL_317.wav</t>
+  </si>
+  <si>
+    <t>LQ_229.wav</t>
+  </si>
+  <si>
+    <t>VTOL_204.wav</t>
+  </si>
+  <si>
+    <t>GLFW_152.wav</t>
+  </si>
+  <si>
+    <t>VTOL_44.wav</t>
+  </si>
+  <si>
+    <t>1-9887-A-494.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_354.wav</t>
+  </si>
+  <si>
+    <t>VTOL_664.wav</t>
+  </si>
+  <si>
+    <t>GLFW_535.wav</t>
+  </si>
+  <si>
+    <t>VTOL_590.wav</t>
+  </si>
+  <si>
+    <t>LQ_696.wav</t>
+  </si>
+  <si>
+    <t>GLFW_382.wav</t>
+  </si>
+  <si>
+    <t>LQ_361.wav</t>
+  </si>
+  <si>
+    <t>VTOL_721.wav</t>
+  </si>
+  <si>
+    <t>VTOL_561.wav</t>
+  </si>
+  <si>
+    <t>VTOL_597.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_422.wav</t>
+  </si>
+  <si>
+    <t>VTOL_72.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_241.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_339.wav</t>
+  </si>
+  <si>
+    <t>GLFW_210.wav</t>
+  </si>
+  <si>
+    <t>1-38560-A-140.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_81.wav</t>
+  </si>
+  <si>
+    <t>VTOL_479.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_84.wav</t>
+  </si>
+  <si>
+    <t>1-9887-B-491.wav</t>
+  </si>
+  <si>
+    <t>GLFW_233.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_216.wav</t>
+  </si>
+  <si>
+    <t>VTOL_606.wav</t>
+  </si>
+  <si>
+    <t>LQ_34.wav</t>
+  </si>
+  <si>
+    <t>1-7057-A-122.wav</t>
+  </si>
+  <si>
+    <t>GLFW_110.wav</t>
+  </si>
+  <si>
+    <t>1-7057-A-120.wav</t>
+  </si>
+  <si>
+    <t>1-7974-A-494.wav</t>
+  </si>
+  <si>
+    <t>VTOL_11.wav</t>
+  </si>
+  <si>
+    <t>VTOL_699.wav</t>
+  </si>
+  <si>
+    <t>LQ_333.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_22.wav</t>
+  </si>
+  <si>
+    <t>GLFW_254.wav</t>
+  </si>
+  <si>
+    <t>VTOL_470.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_371.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_337.wav</t>
+  </si>
+  <si>
+    <t>LQ_67.wav</t>
+  </si>
+  <si>
+    <t>VTOL_178.wav</t>
+  </si>
+  <si>
+    <t>GLFW_260.wav</t>
+  </si>
+  <si>
+    <t>1-7974-B-491.wav</t>
+  </si>
+  <si>
+    <t>1-4211-A-124.wav</t>
+  </si>
+  <si>
+    <t>LQ_247.wav</t>
+  </si>
+  <si>
+    <t>VTOL_252.wav</t>
+  </si>
+  <si>
+    <t>LQ_343.wav</t>
+  </si>
+  <si>
+    <t>VTOL_553.wav</t>
+  </si>
+  <si>
+    <t>LQ_448.wav</t>
+  </si>
+  <si>
+    <t>VTOL_512.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_655.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_510.wav</t>
+  </si>
+  <si>
+    <t>LQ_487.wav</t>
+  </si>
+  <si>
+    <t>GLFW_32.wav</t>
+  </si>
+  <si>
+    <t>1-39835-A-90.wav</t>
+  </si>
+  <si>
+    <t>GLFW_324.wav</t>
+  </si>
+  <si>
+    <t>1-9887-B-492.wav</t>
+  </si>
+  <si>
+    <t>1-977-A-391.wav</t>
+  </si>
+  <si>
+    <t>LQ_5.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_163.wav</t>
+  </si>
+  <si>
+    <t>VTOL_344.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_160.wav</t>
+  </si>
+  <si>
+    <t>GLFW_586.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_198.wav</t>
+  </si>
+  <si>
+    <t>1-4211-A-120.wav</t>
+  </si>
+  <si>
+    <t>LQ_144.wav</t>
+  </si>
+  <si>
+    <t>VTOL_50.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_59.wav</t>
+  </si>
+  <si>
+    <t>GLFW_161.wav</t>
+  </si>
+  <si>
+    <t>GLFW_59.wav</t>
+  </si>
+  <si>
+    <t>1-9841-A-133.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_627.wav</t>
+  </si>
+  <si>
+    <t>GLFW_494.wav</t>
+  </si>
+  <si>
+    <t>LQ_538.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_131.wav</t>
+  </si>
+  <si>
+    <t>VTOL_24.wav</t>
+  </si>
+  <si>
+    <t>GLFW_38.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_285.wav</t>
+  </si>
+  <si>
+    <t>LQ_321.wav</t>
+  </si>
+  <si>
+    <t>1-9886-A-492.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_660.wav</t>
+  </si>
+  <si>
+    <t>1-9886-A-493.wav</t>
+  </si>
+  <si>
+    <t>1-9887-B-494.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_151.wav</t>
+  </si>
+  <si>
+    <t>VTOL_112.wav</t>
+  </si>
+  <si>
+    <t>GLFW_25.wav</t>
+  </si>
+  <si>
+    <t>1-7057-A-124.wav</t>
+  </si>
+  <si>
+    <t>GLFW_552.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_43.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_48.wav</t>
+  </si>
+  <si>
+    <t>LQ_60.wav</t>
+  </si>
+  <si>
+    <t>1-7974-B-490.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_263.wav</t>
+  </si>
+  <si>
+    <t>VTOL_550.wav</t>
+  </si>
+  <si>
+    <t>LQ_365.wav</t>
+  </si>
+  <si>
+    <t>VTOL_257.wav</t>
+  </si>
+  <si>
+    <t>LQ_148.wav</t>
+  </si>
+  <si>
+    <t>LQ_517.wav</t>
+  </si>
+  <si>
+    <t>LQ_192.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_304.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_361.wav</t>
+  </si>
+  <si>
+    <t>LQ_371.wav</t>
+  </si>
+  <si>
+    <t>GLFW_341.wav</t>
+  </si>
+  <si>
+    <t>1-38560-A-144.wav</t>
+  </si>
+  <si>
+    <t>1-7974-B-494.wav</t>
+  </si>
+  <si>
+    <t>VTOL_65.wav</t>
+  </si>
+  <si>
+    <t>GLFW_484.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_208.wav</t>
+  </si>
+  <si>
+    <t>VTOL_449.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_543.wav</t>
+  </si>
+  <si>
+    <t>VTOL_116.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_257.wav</t>
+  </si>
+  <si>
+    <t>VTOL_151.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_414.wav</t>
+  </si>
+  <si>
+    <t>1-39835-A-91.wav</t>
+  </si>
+  <si>
+    <t>1-9887-A-492.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_219.wav</t>
+  </si>
+  <si>
+    <t>1-7456-A-130.wav</t>
+  </si>
+  <si>
+    <t>1-977-A-393.wav</t>
+  </si>
+  <si>
+    <t>LQ_703.wav</t>
+  </si>
+  <si>
+    <t>1-9887-B-493.wav</t>
+  </si>
+  <si>
+    <t>LQ_392.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_21.wav</t>
+  </si>
+  <si>
+    <t>1-7057-A-123.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_51.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_178.wav</t>
+  </si>
+  <si>
+    <t>1-7973-A-70.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_624.wav</t>
+  </si>
+  <si>
+    <t>1-9887-B-490.wav</t>
+  </si>
+  <si>
+    <t>VTOL_104.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_187.wav</t>
+  </si>
+  <si>
+    <t>1-7974-B-492.wav</t>
+  </si>
+  <si>
+    <t>LQ_656.wav</t>
+  </si>
+  <si>
+    <t>GLFW_208.wav</t>
+  </si>
+  <si>
+    <t>1-7974-B-493.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_160.wav</t>
+  </si>
+  <si>
+    <t>VTOL_161.wav</t>
+  </si>
+  <si>
+    <t>GLFW_42.wav</t>
+  </si>
+  <si>
+    <t>VTOL_442.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_478.wav</t>
+  </si>
+  <si>
+    <t>GLFW_450.wav</t>
+  </si>
+  <si>
+    <t>GLFW_321.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_430.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_467.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_76.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_47.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_352.wav</t>
+  </si>
+  <si>
+    <t>LQ_420.wav</t>
+  </si>
+  <si>
+    <t>GLFW_305.wav</t>
+  </si>
+  <si>
+    <t>LQ_273.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_200.wav</t>
+  </si>
+  <si>
+    <t>1-9841-A-130.wav</t>
+  </si>
+  <si>
+    <t>LQ_110.wav</t>
+  </si>
+  <si>
+    <t>1-5996-A-64.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_594.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_42.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_524.wav</t>
+  </si>
+  <si>
+    <t>1-9841-A-132.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_140.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_404.wav</t>
+  </si>
+  <si>
+    <t>VTOL_676.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_192.wav</t>
+  </si>
+  <si>
+    <t>LQ_72.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_277.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_336.wav</t>
+  </si>
+  <si>
+    <t>1-7973-A-71.wav</t>
+  </si>
+  <si>
+    <t>VTOL_444.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_275.wav</t>
+  </si>
+  <si>
+    <t>GLFW_497.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_330.wav</t>
+  </si>
+  <si>
+    <t>LQ_431.wav</t>
+  </si>
+  <si>
+    <t>1-9886-A-494.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_264.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_148.wav</t>
+  </si>
+  <si>
+    <t>LQ_659.wav</t>
+  </si>
+  <si>
+    <t>LQ_42.wav</t>
+  </si>
+  <si>
+    <t>MEMBO_513.wav</t>
+  </si>
+  <si>
+    <t>1-4211-A-122.wav</t>
+  </si>
+  <si>
+    <t>VTOL_380.wav</t>
+  </si>
+  <si>
+    <t>BEBOP_507.wav</t>
   </si>
 </sst>
 </file>
@@ -11518,10 +12754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3712"/>
+  <dimension ref="A1:C4124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A3696" workbookViewId="0">
+      <selection activeCell="E3715" sqref="E3715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -52363,6 +53599,4538 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3713" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3713" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B3713" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3714" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3714" t="s">
+        <v>3721</v>
+      </c>
+      <c r="B3714" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3714">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3715" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3715" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B3715" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3716" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3716" t="s">
+        <v>3723</v>
+      </c>
+      <c r="B3716" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3717" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3717" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B3717" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3717">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3718" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3718" t="s">
+        <v>3725</v>
+      </c>
+      <c r="B3718" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3719" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3719" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B3719" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3719">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3720" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3720" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B3720" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3720">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3721" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3721" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B3721" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3721">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3722" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3722" t="s">
+        <v>3729</v>
+      </c>
+      <c r="B3722" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3722">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3723" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3723" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B3723" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3723">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3724" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3724" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B3724" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3724">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3725" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3725" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B3725" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3726" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3726" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B3726" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3726">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3727" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3727" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B3727" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3727">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3728" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3728" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B3728" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3728">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3729" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3729" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B3729" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3730" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3730" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B3730" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3730">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3731" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3731" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B3731" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3732" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3732" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B3732" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3732">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3733" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3733" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B3733" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3733">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3734" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3734" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B3734" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3734">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3735" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3735" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B3735" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3735">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3736" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3736" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B3736" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3736">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3737" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3737" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B3737" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3737">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3738" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3738" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B3738" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3739" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3739" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B3739" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3739">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3740" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3740" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B3740" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3740">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3741" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3741" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B3741" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3742" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3742" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B3742" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3742">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3743" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3743" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B3743" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3743">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3744" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3744" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B3744" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3744">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3745" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3745" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B3745" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3746" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3746" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B3746" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3746">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3747" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3747" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B3747" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3747">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3748" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3748" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B3748" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3748">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3749" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3749" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B3749" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3749">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3750" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3750" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B3750" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3750">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3751" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3751" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B3751" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3751">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3752" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3752" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B3752" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3752">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3753" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3753" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B3753" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3753">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3754" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3754" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B3754" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3754">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3755" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3755" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B3755" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3755">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3756" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3756" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B3756" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3757" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3757" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B3757" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3757">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3758" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3758" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B3758" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3758">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3759" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3759" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B3759" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3759">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3760" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3760" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B3760" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3761" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3761" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B3761" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3761">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3762" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3762" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B3762" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3762">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3763" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3763" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B3763" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3763">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3764" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3764" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B3764" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3764">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3765" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3765" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B3765" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3765">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3766" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3766" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B3766" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3766">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3767" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3767" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B3767" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3768" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3768" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B3768" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3768">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3769" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3769" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B3769" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3770" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3770" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B3770" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3771" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3771" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B3771" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3771">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3772" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3772" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B3772" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3772">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3773" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3773" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B3773" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3774" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3774" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B3774" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3774">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3775" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3775" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B3775" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3775">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3776" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3776" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B3776" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3777" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3777" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B3777" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3777">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3778" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3778" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B3778" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3778">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3779" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3779" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B3779" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3779">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3780" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3780" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B3780" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3780">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3781" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3781" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B3781" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3782" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3782" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B3782" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3782">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3783" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3783" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B3783" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3783">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3784" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3784" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B3784" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3784">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3785" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3785" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B3785" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3785">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3786" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3786" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B3786" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3786">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3787" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3787" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B3787" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3788" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3788" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B3788" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3789" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3789" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B3789" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3789">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3790" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3790" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3790" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3791" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3791" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B3791" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3791">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3792" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3792" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B3792" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3792">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3793" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3793" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B3793" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3793">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3794" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3794" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B3794" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3795" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3795" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B3795" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3796" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3796" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B3796" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3796">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3797" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3797" t="s">
+        <v>3804</v>
+      </c>
+      <c r="B3797" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3797">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3798" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3798" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B3798" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3798">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3799" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3799" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B3799" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3800" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3800" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B3800" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3800">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3801" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3801" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B3801" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3802" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3802" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B3802" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3803" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3803" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B3803" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3803">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3804" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3804" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B3804" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3804">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3805" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3805" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B3805" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3805">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3806" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3806" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B3806" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3807" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3807" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B3807" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3807">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3808" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3808" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B3808" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3808">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3809" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3809" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B3809" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3809">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3810" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3810" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B3810" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3810">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3811" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3811" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B3811" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3812" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3812" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B3812" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3813" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3813" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B3813" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3814" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B3814" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3815" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B3815" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3815">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3816" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B3816" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3817" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B3817" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3817">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3818" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B3818" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3818">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3819" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B3819" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3819">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3820" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B3820" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3820">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3821" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B3821" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3821">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3822" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B3822" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3822">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3823" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3823" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3824" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B3824" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3824">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3825" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B3825" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3825">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3826" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B3826" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3826">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3827" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B3827" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3827">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3828" t="s">
+        <v>3835</v>
+      </c>
+      <c r="B3828" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3828">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3829" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B3829" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3829">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3830" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B3830" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3831" t="s">
+        <v>3838</v>
+      </c>
+      <c r="B3831" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3832" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B3832" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3832">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3833" t="s">
+        <v>3840</v>
+      </c>
+      <c r="B3833" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3834" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B3834" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3834">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3835" t="s">
+        <v>3842</v>
+      </c>
+      <c r="B3835" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3836" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B3836" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3836">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3837" t="s">
+        <v>3844</v>
+      </c>
+      <c r="B3837" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3838" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B3838" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3838">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3839" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B3839" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3839">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3840" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B3840" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3840">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3841" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B3841" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3841">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3842" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B3842" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3842">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3843" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B3843" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3843">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3844" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B3844" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3844">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3845" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B3845" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3845">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3846" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B3846" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3846">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3847" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B3847" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3847">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3848" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B3848" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3848">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3849" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B3849" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3849">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3850" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B3850" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3850">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3851" t="s">
+        <v>3858</v>
+      </c>
+      <c r="B3851" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3851">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3852" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B3852" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3853" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B3853" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3853">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3854" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B3854" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3854">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3855" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B3855" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3856" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B3856" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3856">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3857" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B3857" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3857">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3858" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B3858" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3859" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B3859" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3859">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3860" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B3860" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3861" t="s">
+        <v>3868</v>
+      </c>
+      <c r="B3861" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3862" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B3862" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3862">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3863" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B3863" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3863">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3864" t="s">
+        <v>3871</v>
+      </c>
+      <c r="B3864" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3864">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3865" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B3865" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3866" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B3866" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3867" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B3867" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3867">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3868" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B3868" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3869" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B3869" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3869">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3870" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B3870" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3870">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3871" t="s">
+        <v>3878</v>
+      </c>
+      <c r="B3871" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3871">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3872" t="s">
+        <v>3879</v>
+      </c>
+      <c r="B3872" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3872">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3873" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B3873" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3874" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B3874" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3875" t="s">
+        <v>3882</v>
+      </c>
+      <c r="B3875" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3875">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3876" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B3876" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3876">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3877" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3877" t="s">
+        <v>3884</v>
+      </c>
+      <c r="B3877" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3877">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3878" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3878" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B3878" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3879" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B3879" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3879">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3880" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3880" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B3880" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3880">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3881" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3881" t="s">
+        <v>3888</v>
+      </c>
+      <c r="B3881" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3882" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3882" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B3882" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3883" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3883" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B3883" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3883">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3884" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3884" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B3884" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3885" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3885" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B3885" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3886" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B3886" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3886">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3887" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3887" t="s">
+        <v>3894</v>
+      </c>
+      <c r="B3887" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3887">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3888" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3888" t="s">
+        <v>3895</v>
+      </c>
+      <c r="B3888" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3888">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3889" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3889" t="s">
+        <v>3896</v>
+      </c>
+      <c r="B3889" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3889">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3890" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3890" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B3890" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3891" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3891" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B3891" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3891">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3892" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3892" t="s">
+        <v>3899</v>
+      </c>
+      <c r="B3892" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3892">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3893" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3893" t="s">
+        <v>3900</v>
+      </c>
+      <c r="B3893" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3893">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3894" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3894" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B3894" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3894">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3895" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3895" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B3895" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3895">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3896" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3896" t="s">
+        <v>3903</v>
+      </c>
+      <c r="B3896" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3897" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3897" t="s">
+        <v>3904</v>
+      </c>
+      <c r="B3897" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3897">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3898" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3898" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B3898" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3898">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3899" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3899" t="s">
+        <v>3906</v>
+      </c>
+      <c r="B3899" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3900" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3900" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B3900" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3901" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3901" t="s">
+        <v>3908</v>
+      </c>
+      <c r="B3901" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3902" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3902" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B3902" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3902">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3903" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3903" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B3903" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3903">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3904" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3904" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B3904" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3905" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3905" t="s">
+        <v>3912</v>
+      </c>
+      <c r="B3905" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3905">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3906" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3906" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B3906" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3906">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3907" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3907" t="s">
+        <v>3914</v>
+      </c>
+      <c r="B3907" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3907">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3908" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3908" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B3908" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3908">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3909" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3909" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B3909" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3909">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3910" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3910" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B3910" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3910">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3911" t="s">
+        <v>3918</v>
+      </c>
+      <c r="B3911" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3911">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3912" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3912" t="s">
+        <v>3919</v>
+      </c>
+      <c r="B3912" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3912">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3913" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3913" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B3913" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3913">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3914" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3914" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B3914" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3914">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3915" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3915" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B3915" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3915">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3916" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3916" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B3916" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3917" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3917" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B3917" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3917">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3918" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3918" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B3918" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3918">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3919" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3919" t="s">
+        <v>3926</v>
+      </c>
+      <c r="B3919" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3920" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3920" t="s">
+        <v>3927</v>
+      </c>
+      <c r="B3920" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3920">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3921" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3921" t="s">
+        <v>3928</v>
+      </c>
+      <c r="B3921" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3921">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3922" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3922" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B3922" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3922">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3923" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3923" t="s">
+        <v>3930</v>
+      </c>
+      <c r="B3923" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3923">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3924" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3924" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B3924" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3924">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3925" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3925" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B3925" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3925">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3926" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3926" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B3926" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3926">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3927" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3927" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B3927" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3927">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3928" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3928" t="s">
+        <v>3935</v>
+      </c>
+      <c r="B3928" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3929" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3929" t="s">
+        <v>3936</v>
+      </c>
+      <c r="B3929" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3929">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3930" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3930" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B3930" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3930">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3931" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3931" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B3931" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3931">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3932" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3932" t="s">
+        <v>3939</v>
+      </c>
+      <c r="B3932" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3932">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3933" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3933" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B3933" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3933">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3934" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3934" t="s">
+        <v>3941</v>
+      </c>
+      <c r="B3934" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3935" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3935" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B3935" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3935">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3936" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3936" t="s">
+        <v>3943</v>
+      </c>
+      <c r="B3936" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3937" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3937" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B3937" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3937">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3938" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3938" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B3938" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3938">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3939" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3939" t="s">
+        <v>3946</v>
+      </c>
+      <c r="B3939" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3940" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3940" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B3940" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3940">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3941" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3941" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B3941" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3941">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3942" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3942" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B3942" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3942">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3943" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3943" t="s">
+        <v>3950</v>
+      </c>
+      <c r="B3943" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3943">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3944" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3944" t="s">
+        <v>3951</v>
+      </c>
+      <c r="B3944" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3944">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3945" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3945" t="s">
+        <v>3952</v>
+      </c>
+      <c r="B3945" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3946" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3946" t="s">
+        <v>3953</v>
+      </c>
+      <c r="B3946" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3946">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3947" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3947" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B3947" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3947">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3948" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3948" t="s">
+        <v>3955</v>
+      </c>
+      <c r="B3948" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3948">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3949" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3949" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B3949" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3949">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3950" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3950" t="s">
+        <v>3957</v>
+      </c>
+      <c r="B3950" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3951" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3951" t="s">
+        <v>3958</v>
+      </c>
+      <c r="B3951" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3951">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3952" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3952" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B3952" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3952">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3953" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3953" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B3953" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3954" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3954" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B3954" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3954">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3955" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3955" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B3955" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3955">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3956" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3956" t="s">
+        <v>3963</v>
+      </c>
+      <c r="B3956" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3956">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3957" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3957" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B3957" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3957">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3958" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3958" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B3958" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3958">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3959" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3959" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B3959" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3959">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3960" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3960" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B3960" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3960">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3961" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3961" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B3961" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3962" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3962" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B3962" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3962">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3963" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3963" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B3963" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3963">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3964" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3964" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B3964" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3964">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3965" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3965" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B3965" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3965">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3966" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3966" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B3966" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3966">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3967" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3967" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B3967" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3967">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3968" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3968" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B3968" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3969" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3969" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B3969" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3969">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3970" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3970" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B3970" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3970">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3971" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3971" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B3971" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3971">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3972" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3972" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B3972" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3972">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3973" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3973" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B3973" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3973">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3974" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3974" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B3974" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3974">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3975" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3975" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B3975" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3975">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3976" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3976" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B3976" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3976">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3977" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3977" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B3977" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3977">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3978" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3978" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B3978" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3978">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3979" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3979" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B3979" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3979">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3980" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3980" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B3980" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3981" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3981" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B3981" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3981">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3982" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3982" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B3982" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3983" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3983" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B3983" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3983">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3984" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3984" t="s">
+        <v>3991</v>
+      </c>
+      <c r="B3984" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3984">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3985" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3985" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B3985" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3985">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3986" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3986" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B3986" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3986">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3987" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3987" t="s">
+        <v>3994</v>
+      </c>
+      <c r="B3987" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3987">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3988" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3988" t="s">
+        <v>3995</v>
+      </c>
+      <c r="B3988" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3988">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3989" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3989" t="s">
+        <v>3996</v>
+      </c>
+      <c r="B3989" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3989">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3990" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3990" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B3990" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3990">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3991" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3991" t="s">
+        <v>3998</v>
+      </c>
+      <c r="B3991" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3991">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3992" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3992" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B3992" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3992">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3993" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3993" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B3993" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3993">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3994" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3994" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B3994" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C3994">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3995" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3995" t="s">
+        <v>4002</v>
+      </c>
+      <c r="B3995" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3995">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3996" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3996" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B3996" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3996">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3997" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3997" t="s">
+        <v>4004</v>
+      </c>
+      <c r="B3997" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3997">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3998" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3998" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B3998" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3998">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3999" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3999" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B3999" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3999">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4000" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4000" t="s">
+        <v>4007</v>
+      </c>
+      <c r="B4000" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4000">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4001" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4001" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B4001" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4001">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4002" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4002" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B4002" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4002">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4003" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4003" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B4003" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4003">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4004" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4004" t="s">
+        <v>4011</v>
+      </c>
+      <c r="B4004" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4005" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4005" t="s">
+        <v>4012</v>
+      </c>
+      <c r="B4005" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C4005">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4006" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4006" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B4006" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4006">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4007" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4007" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B4007" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4008" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4008" t="s">
+        <v>4015</v>
+      </c>
+      <c r="B4008" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4008">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4009" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4009" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B4009" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4009">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4010" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4010" t="s">
+        <v>4017</v>
+      </c>
+      <c r="B4010" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4010">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4011" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4011" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B4011" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C4011">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4012" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4012" t="s">
+        <v>4019</v>
+      </c>
+      <c r="B4012" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4012">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4013" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4013" t="s">
+        <v>4020</v>
+      </c>
+      <c r="B4013" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4013">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4014" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4014" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B4014" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4014">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4015" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4015" t="s">
+        <v>4022</v>
+      </c>
+      <c r="B4015" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4015">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4016" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4016" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B4016" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4016">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4017" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4017" t="s">
+        <v>4024</v>
+      </c>
+      <c r="B4017" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4017">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4018" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4018" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B4018" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4018">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4019" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4019" t="s">
+        <v>4026</v>
+      </c>
+      <c r="B4019" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4019">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4020" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4020" t="s">
+        <v>4027</v>
+      </c>
+      <c r="B4020" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C4020">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4021" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4021" t="s">
+        <v>4028</v>
+      </c>
+      <c r="B4021" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4022" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4022" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B4022" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4022">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4023" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4023" t="s">
+        <v>4030</v>
+      </c>
+      <c r="B4023" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4023">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4024" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4024" t="s">
+        <v>4031</v>
+      </c>
+      <c r="B4024" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4024">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4025" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4025" t="s">
+        <v>4032</v>
+      </c>
+      <c r="B4025" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4025">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4026" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4026" t="s">
+        <v>4033</v>
+      </c>
+      <c r="B4026" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4026">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4027" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4027" t="s">
+        <v>4034</v>
+      </c>
+      <c r="B4027" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4027">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4028" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4028" t="s">
+        <v>4035</v>
+      </c>
+      <c r="B4028" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4028">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4029" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4029" t="s">
+        <v>4036</v>
+      </c>
+      <c r="B4029" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C4029">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4030" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4030" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B4030" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4030">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4031" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4031" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B4031" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4031">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4032" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4032" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B4032" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4032">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4033" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4033" t="s">
+        <v>4040</v>
+      </c>
+      <c r="B4033" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4033">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4034" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4034" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B4034" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4034">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4035" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4035" t="s">
+        <v>4042</v>
+      </c>
+      <c r="B4035" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4035">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4036" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4036" t="s">
+        <v>4043</v>
+      </c>
+      <c r="B4036" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4036">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4037" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4037" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B4037" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4037">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4038" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4038" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B4038" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C4038">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4039" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4039" t="s">
+        <v>4046</v>
+      </c>
+      <c r="B4039" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4039">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4040" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4040" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B4040" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C4040">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4041" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4041" t="s">
+        <v>4048</v>
+      </c>
+      <c r="B4041" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4041">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4042" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4042" t="s">
+        <v>4049</v>
+      </c>
+      <c r="B4042" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4042">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4043" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4043" t="s">
+        <v>4050</v>
+      </c>
+      <c r="B4043" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4043">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4044" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4044" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B4044" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4044">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4045" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4045" t="s">
+        <v>4052</v>
+      </c>
+      <c r="B4045" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4045">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4046" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4046" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B4046" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4046">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4047" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4047" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B4047" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4048" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4048" t="s">
+        <v>4055</v>
+      </c>
+      <c r="B4048" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4048">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4049" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4049" t="s">
+        <v>4056</v>
+      </c>
+      <c r="B4049" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4049">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4050" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4050" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B4050" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C4050">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4051" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4051" t="s">
+        <v>4058</v>
+      </c>
+      <c r="B4051" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4051">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4052" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4052" t="s">
+        <v>4059</v>
+      </c>
+      <c r="B4052" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4052">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4053" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4053" t="s">
+        <v>4060</v>
+      </c>
+      <c r="B4053" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C4053">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4054" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4054" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B4054" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4054">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4055" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4055" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B4055" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C4055">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4056" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4056" t="s">
+        <v>4063</v>
+      </c>
+      <c r="B4056" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4056">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4057" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4057" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B4057" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C4057">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4058" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4058" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B4058" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4058">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4059" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4059" t="s">
+        <v>4066</v>
+      </c>
+      <c r="B4059" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4059">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4060" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4060" t="s">
+        <v>4067</v>
+      </c>
+      <c r="B4060" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4060">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4061" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B4061" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4061">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4062" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4062" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B4062" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4062">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4063" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4063" t="s">
+        <v>4070</v>
+      </c>
+      <c r="B4063" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4063">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4064" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4064" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B4064" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4064">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4065" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B4065" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4065">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4066" t="s">
+        <v>4073</v>
+      </c>
+      <c r="B4066" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4066">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4067" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B4067" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4067">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4068" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B4068" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4068">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4069" t="s">
+        <v>4076</v>
+      </c>
+      <c r="B4069" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4069">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4070" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4070" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B4070" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4071" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4071" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B4071" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4071">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4072" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4072" t="s">
+        <v>4079</v>
+      </c>
+      <c r="B4072" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4072">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4073" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4073" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B4073" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4073">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4074" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4074" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B4074" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C4074">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4075" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4075" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B4075" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4075">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4076" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4076" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B4076" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4076">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4077" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4077" t="s">
+        <v>4084</v>
+      </c>
+      <c r="B4077" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4077">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4078" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4078" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B4078" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4078">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4079" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4079" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B4079" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4079">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4080" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4080" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B4080" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4080">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4081" t="s">
+        <v>4088</v>
+      </c>
+      <c r="B4081" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C4081">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4082" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B4082" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4082">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4083" t="s">
+        <v>4090</v>
+      </c>
+      <c r="B4083" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C4083">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4084" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B4084" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4084">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4085" t="s">
+        <v>4092</v>
+      </c>
+      <c r="B4085" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4085">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4086" t="s">
+        <v>4093</v>
+      </c>
+      <c r="B4086" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4086">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4087" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4087" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B4087" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4087">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4088" t="s">
+        <v>4095</v>
+      </c>
+      <c r="B4088" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4088">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4089" t="s">
+        <v>4096</v>
+      </c>
+      <c r="B4089" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4089">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4090" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B4090" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4090">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4091" t="s">
+        <v>4098</v>
+      </c>
+      <c r="B4091" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4092" t="s">
+        <v>4099</v>
+      </c>
+      <c r="B4092" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4092">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4093" t="s">
+        <v>4100</v>
+      </c>
+      <c r="B4093" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4093">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4094" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B4094" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4094">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4095" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B4095" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4095">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4096" t="s">
+        <v>4103</v>
+      </c>
+      <c r="B4096" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4096">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4097" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B4097" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4097">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4098" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B4098" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4098">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4099" t="s">
+        <v>4106</v>
+      </c>
+      <c r="B4099" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4099">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4100" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B4100" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4101" t="s">
+        <v>4108</v>
+      </c>
+      <c r="B4101" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4102" t="s">
+        <v>4109</v>
+      </c>
+      <c r="B4102" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4103" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B4103" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4104" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B4104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4105" t="s">
+        <v>4112</v>
+      </c>
+      <c r="B4105" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C4105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4106" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B4106" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4107" t="s">
+        <v>4114</v>
+      </c>
+      <c r="B4107" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4108" t="s">
+        <v>4115</v>
+      </c>
+      <c r="B4108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4109" t="s">
+        <v>4116</v>
+      </c>
+      <c r="B4109" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4110" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B4110" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4111" t="s">
+        <v>4118</v>
+      </c>
+      <c r="B4111" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C4111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4112" t="s">
+        <v>4119</v>
+      </c>
+      <c r="B4112" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4113" t="s">
+        <v>4120</v>
+      </c>
+      <c r="B4113" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4114" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B4114" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4115" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B4115" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4116" t="s">
+        <v>4123</v>
+      </c>
+      <c r="B4116" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4117" t="s">
+        <v>4124</v>
+      </c>
+      <c r="B4117" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4118" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B4118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4119" t="s">
+        <v>4126</v>
+      </c>
+      <c r="B4119" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4120" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B4120" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C4120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4121" t="s">
+        <v>4128</v>
+      </c>
+      <c r="B4121" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C4121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4122" t="s">
+        <v>4129</v>
+      </c>
+      <c r="B4122" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C4122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4123" t="s">
+        <v>4130</v>
+      </c>
+      <c r="B4123" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C4123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4124" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B4124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4124">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
